--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Format.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Format.xlsx
@@ -26,16 +26,16 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>.fskx</t>
+  </si>
+  <si>
+    <t>Format_2</t>
+  </si>
+  <si>
     <t>.pmfx</t>
   </si>
   <si>
     <t>Format_1</t>
-  </si>
-  <si>
-    <t>.fskx</t>
-  </si>
-  <si>
-    <t>Format_2</t>
   </si>
   <si>
     <t>Other</t>
